--- a/Testshixun/data/user3.xlsx
+++ b/Testshixun/data/user3.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙锦镖\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A726EF-E7EB-413C-AC34-D796687C4A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2C0BA6D8-6004-4A97-8728-2AC5D68F3DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{460A679A-4529-4D5C-B917-A00AAABC14AC}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16920" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,25 +21,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户组1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!@#$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名最长可以是多长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD</t>
+    <t>测试用户组名最短可以是多短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名是不是可以是特殊符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名是不是可以是纯数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名是不是可以是纯英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名是不是可以是纯中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户组名是不是可以重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,13 +93,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -86,14 +121,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -112,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -128,7 +160,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -140,7 +172,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,7 +189,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -187,29 +219,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -239,23 +254,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,41 +405,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C74469A-D425-4849-B3C8-8BC097422448}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>